--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39607</v>
+        <v>77471</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Júlia Duarte</t>
+          <t>Lucca da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>9813.299999999999</v>
+        <v>10578.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55739</v>
+        <v>42045</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Davi Luiz Pereira</t>
+          <t>Dra. Maysa Porto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>12039.45</v>
+        <v>6980.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61441</v>
+        <v>90739</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Diogo da Paz</t>
+          <t>Nina Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>10485.9</v>
+        <v>9543.969999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96084</v>
+        <v>43609</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maitê Duarte</t>
+          <t>Dr. Emanuel da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,24 +584,24 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>11766.71</v>
+        <v>11297.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43591</v>
+        <v>68996</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Emilly Rodrigues</t>
+          <t>Heloísa Almeida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>8706.530000000001</v>
+        <v>6495.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4837</v>
+        <v>34685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Francisco da Rocha</t>
+          <t>Gabriel Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,48 +642,48 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>11387.7</v>
+        <v>9081.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27585</v>
+        <v>81339</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafaela Costela</t>
+          <t>Srta. Bianca Novaes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>4505.86</v>
+        <v>11093.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42640</v>
+        <v>6463</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Stephany Barbosa</t>
+          <t>Augusto Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,60 +693,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>4380.07</v>
+        <v>10697.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60456</v>
+        <v>69103</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gabrielly Azevedo</t>
+          <t>Davi Lucca Jesus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>6112.05</v>
+        <v>3066.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25999</v>
+        <v>74328</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Felipe Aragão</t>
+          <t>Theo Teixeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>2988.17</v>
+        <v>12185.53</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77471</v>
+        <v>4893</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucca da Rosa</t>
+          <t>Davi Luiz Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>10578.17</v>
+        <v>10222.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42045</v>
+        <v>95861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Maysa Porto</t>
+          <t>Levi Fernandes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>6980.05</v>
+        <v>11207.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90739</v>
+        <v>81634</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nina Silva</t>
+          <t>João Vitor Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,143 +552,143 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>9543.969999999999</v>
+        <v>9007.360000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43609</v>
+        <v>77371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Emanuel da Cunha</t>
+          <t>Lucas Gabriel Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>11297.9</v>
+        <v>3558.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68996</v>
+        <v>24258</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heloísa Almeida</t>
+          <t>Lucas Gabriel Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>6495.47</v>
+        <v>8209.219999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34685</v>
+        <v>43758</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabriel Moraes</t>
+          <t>Ana Carolina Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>9081.42</v>
+        <v>2931.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81339</v>
+        <v>14546</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Bianca Novaes</t>
+          <t>Kevin Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>11093.31</v>
+        <v>2933.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6463</v>
+        <v>13060</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Augusto Souza</t>
+          <t>Diego Sales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>10697.69</v>
+        <v>10345.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69103</v>
+        <v>42915</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Lucca Jesus</t>
+          <t>Dr. Pedro Lucas Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>3066.4</v>
+        <v>6894.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74328</v>
+        <v>74829</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Theo Teixeira</t>
+          <t>João Guilherme Lima</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>12185.53</v>
+        <v>7280.21</v>
       </c>
     </row>
   </sheetData>
